--- a/Code/Results/Cases/Case_2_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_215/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7868948731548358</v>
+        <v>0.2587124234681539</v>
       </c>
       <c r="C2">
-        <v>0.1156834565643834</v>
+        <v>0.03611214932875839</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4429386095779861</v>
+        <v>0.4900217385315528</v>
       </c>
       <c r="F2">
-        <v>1.431104077018915</v>
+        <v>2.229381280129004</v>
       </c>
       <c r="G2">
-        <v>0.0008125385567749946</v>
+        <v>0.002448025733672279</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.266837185995243</v>
+        <v>0.6208505565256885</v>
       </c>
       <c r="J2">
-        <v>0.03119695222354579</v>
+        <v>0.05585128492409552</v>
       </c>
       <c r="K2">
-        <v>0.8415179720599042</v>
+        <v>0.2642209713797286</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6437379591364945</v>
+        <v>0.4021137604249532</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.269124392992353</v>
+        <v>2.779098296046641</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6867659983804515</v>
+        <v>0.227432949004708</v>
       </c>
       <c r="C3">
-        <v>0.1023990934415622</v>
+        <v>0.03186824337062433</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3952965902362919</v>
+        <v>0.4800693629255974</v>
       </c>
       <c r="F3">
-        <v>1.335126660854812</v>
+        <v>2.221081260319067</v>
       </c>
       <c r="G3">
-        <v>0.0008159878538546274</v>
+        <v>0.0024502086728924</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2776636349462507</v>
+        <v>0.6285404289231629</v>
       </c>
       <c r="J3">
-        <v>0.03205644637762095</v>
+        <v>0.05622708831677414</v>
       </c>
       <c r="K3">
-        <v>0.7360366325284957</v>
+        <v>0.231054985630891</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5610579046783002</v>
+        <v>0.3801312215460229</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.288153198407457</v>
+        <v>2.806929025359267</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6252891084427574</v>
+        <v>0.2081939692552055</v>
       </c>
       <c r="C4">
-        <v>0.09424105575615727</v>
+        <v>0.02924833672945226</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3664842854904293</v>
+        <v>0.4741820905040441</v>
       </c>
       <c r="F4">
-        <v>1.278632987429447</v>
+        <v>2.217216805839513</v>
       </c>
       <c r="G4">
-        <v>0.0008181724547736561</v>
+        <v>0.002451619739001172</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2849840537081718</v>
+        <v>0.6336030001194057</v>
       </c>
       <c r="J4">
-        <v>0.03261180480690129</v>
+        <v>0.05647287603985962</v>
       </c>
       <c r="K4">
-        <v>0.6712645722274289</v>
+        <v>0.2106370737693339</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5106088740977697</v>
+        <v>0.3667744712635468</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.303047219047883</v>
+        <v>2.825623226152146</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6002299495220598</v>
+        <v>0.20034605430223</v>
       </c>
       <c r="C5">
-        <v>0.09091500796581897</v>
+        <v>0.02817719804622243</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3548442831413894</v>
+        <v>0.4718392699871998</v>
       </c>
       <c r="F5">
-        <v>1.256187635568153</v>
+        <v>2.215951769323766</v>
       </c>
       <c r="G5">
-        <v>0.0008190797930980067</v>
+        <v>0.002452212598247469</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2881304713007609</v>
+        <v>0.6357517339845113</v>
       </c>
       <c r="J5">
-        <v>0.0328449735730425</v>
+        <v>0.05657682577883882</v>
       </c>
       <c r="K5">
-        <v>0.6448596978808609</v>
+        <v>0.2023035496410017</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4901194516861622</v>
+        <v>0.3613670992268609</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.309891089266955</v>
+        <v>2.833644900320891</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5960682728537279</v>
+        <v>0.1990424528122219</v>
       </c>
       <c r="C6">
-        <v>0.09036259025859295</v>
+        <v>0.0279991259816228</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3529173191628487</v>
+        <v>0.4714536487231058</v>
       </c>
       <c r="F6">
-        <v>1.252494377104981</v>
+        <v>2.215760420257155</v>
       </c>
       <c r="G6">
-        <v>0.0008192314974292532</v>
+        <v>0.002452312121041236</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2886626256329805</v>
+        <v>0.6361137041510379</v>
       </c>
       <c r="J6">
-        <v>0.03288410256149632</v>
+        <v>0.05659431560868899</v>
       </c>
       <c r="K6">
-        <v>0.6404743707679614</v>
+        <v>0.2009189998841094</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4867210625885363</v>
+        <v>0.3604713675732611</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.311073353368656</v>
+        <v>2.835001265622097</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6249511890717656</v>
+        <v>0.208088160764504</v>
       </c>
       <c r="C7">
-        <v>0.0941962074863909</v>
+        <v>0.02923390510825641</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.366326906477056</v>
+        <v>0.4741502663774071</v>
       </c>
       <c r="F7">
-        <v>1.27832799506858</v>
+        <v>2.217198490889032</v>
       </c>
       <c r="G7">
-        <v>0.0008181846218120306</v>
+        <v>0.002451627662069023</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.285025833880086</v>
+        <v>0.6336316317759838</v>
       </c>
       <c r="J7">
-        <v>0.03261492176075009</v>
+        <v>0.05647426259139632</v>
       </c>
       <c r="K7">
-        <v>0.6709085167416049</v>
+        <v>0.2105247371805063</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5103322810529249</v>
+        <v>0.3667014010251819</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.303136424409928</v>
+        <v>2.825729775234521</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7523652056252104</v>
+        <v>0.2479344455516923</v>
       </c>
       <c r="C8">
-        <v>0.1111025246305104</v>
+        <v>0.03465181093180547</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4264144552758751</v>
+        <v>0.4865438121792991</v>
       </c>
       <c r="F8">
-        <v>1.39748270845277</v>
+        <v>2.226263775718749</v>
       </c>
       <c r="G8">
-        <v>0.0008137142234389351</v>
+        <v>0.002448763762230688</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2704268250910857</v>
+        <v>0.623431234038069</v>
       </c>
       <c r="J8">
-        <v>0.03148751610465794</v>
+        <v>0.05597774373788234</v>
       </c>
       <c r="K8">
-        <v>0.8051441439585574</v>
+        <v>0.2527967989292108</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6151574540961988</v>
+        <v>0.3945051398658563</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.274998992583875</v>
+        <v>2.788360875155945</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.002617955784075</v>
+        <v>0.3257913842982703</v>
       </c>
       <c r="C9">
-        <v>0.1443060776633445</v>
+        <v>0.04516257514771382</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5481953244944648</v>
+        <v>0.5126192294069938</v>
       </c>
       <c r="F9">
-        <v>1.652236168376831</v>
+        <v>2.253817866297126</v>
       </c>
       <c r="G9">
-        <v>0.0008054619201015694</v>
+        <v>0.002443706500191748</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2474184079016446</v>
+        <v>0.6061353773584912</v>
       </c>
       <c r="J9">
-        <v>0.02950015168910269</v>
+        <v>0.0551231328710351</v>
       </c>
       <c r="K9">
-        <v>1.068739843024019</v>
+        <v>0.335247500835095</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8237572341590251</v>
+        <v>0.4501358706769878</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.246854298155057</v>
+        <v>2.727833490151227</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.187291465008173</v>
+        <v>0.3828031701116572</v>
       </c>
       <c r="C10">
-        <v>0.1688254577012458</v>
+        <v>0.05281407443531805</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.640763089177625</v>
+        <v>0.5328570540435322</v>
       </c>
       <c r="F10">
-        <v>1.854878355890818</v>
+        <v>2.2800328607631</v>
       </c>
       <c r="G10">
-        <v>0.0007996898337586375</v>
+        <v>0.002440328248076357</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2343521151798313</v>
+        <v>0.5950806302202736</v>
       </c>
       <c r="J10">
-        <v>0.02818250293819879</v>
+        <v>0.05456741999789116</v>
       </c>
       <c r="K10">
-        <v>1.263249261330088</v>
+        <v>0.3955355662577631</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9796592793786942</v>
+        <v>0.4916767251135141</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.244955391821037</v>
+        <v>2.691152677413854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.271619063973418</v>
+        <v>0.4086946458871807</v>
       </c>
       <c r="C11">
-        <v>0.1800299744442242</v>
+        <v>0.05627932189648277</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6837125602568079</v>
+        <v>0.5422985258098407</v>
       </c>
       <c r="F11">
-        <v>1.951053518666342</v>
+        <v>2.293257965729268</v>
       </c>
       <c r="G11">
-        <v>0.0007971218156236788</v>
+        <v>0.002438863923373891</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2293390882346564</v>
+        <v>0.5904108438965565</v>
       </c>
       <c r="J11">
-        <v>0.02761548908189404</v>
+        <v>0.05433019578169329</v>
       </c>
       <c r="K11">
-        <v>1.352071793224837</v>
+        <v>0.4228962328456873</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.051348123501668</v>
+        <v>0.5107189387872779</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.248716747480657</v>
+        <v>2.676159982997348</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.303609658725861</v>
+        <v>0.4184924084242709</v>
       </c>
       <c r="C12">
-        <v>0.184282139116263</v>
+        <v>0.05758926047641921</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7001120531492973</v>
+        <v>0.5459075440473384</v>
       </c>
       <c r="F12">
-        <v>1.988103012436767</v>
+        <v>2.2984529769586</v>
       </c>
       <c r="G12">
-        <v>0.0007961572124271462</v>
+        <v>0.002438319787202485</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2275834653009952</v>
+        <v>0.5886942011338938</v>
       </c>
       <c r="J12">
-        <v>0.02740556941061811</v>
+        <v>0.05424259795329078</v>
       </c>
       <c r="K12">
-        <v>1.385768648978598</v>
+        <v>0.433247297900067</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.078622254124511</v>
+        <v>0.5179504007812596</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.25085549438819</v>
+        <v>2.670726445104947</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.296717154971162</v>
+        <v>0.416382594739531</v>
       </c>
       <c r="C13">
-        <v>0.1833659141181982</v>
+        <v>0.05730724380028107</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6965738578550429</v>
+        <v>0.5451287781922645</v>
       </c>
       <c r="F13">
-        <v>1.980094781937439</v>
+        <v>2.297325822924989</v>
       </c>
       <c r="G13">
-        <v>0.000796364615336152</v>
+        <v>0.002438436516044211</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2279550759580644</v>
+        <v>0.5890616102101021</v>
       </c>
       <c r="J13">
-        <v>0.02745056374986277</v>
+        <v>0.05426136444851082</v>
       </c>
       <c r="K13">
-        <v>1.37850846794052</v>
+        <v>0.4310184561671804</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.072742349020373</v>
+        <v>0.5163920646807938</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.250362280210993</v>
+        <v>2.67188580320898</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.274249725332879</v>
+        <v>0.4095008525434878</v>
       </c>
       <c r="C14">
-        <v>0.180379605047662</v>
+        <v>0.05638713723547539</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6850589532796079</v>
+        <v>0.5425947662220381</v>
       </c>
       <c r="F14">
-        <v>1.954088639732447</v>
+        <v>2.29368161539486</v>
       </c>
       <c r="G14">
-        <v>0.0007970423025414185</v>
+        <v>0.00243881894925597</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2291917392644223</v>
+        <v>0.5902685780397299</v>
       </c>
       <c r="J14">
-        <v>0.0275981219146928</v>
+        <v>0.05432294431712137</v>
       </c>
       <c r="K14">
-        <v>1.354842739864893</v>
+        <v>0.4237480211162108</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.053589334853761</v>
+        <v>0.5113134644410948</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.248878090592996</v>
+        <v>2.675708073134658</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.260495636198073</v>
+        <v>0.4052846885429631</v>
       </c>
       <c r="C15">
-        <v>0.1785516720871527</v>
+        <v>0.05582324751314616</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6780238384707928</v>
+        <v>0.5410470019669731</v>
       </c>
       <c r="F15">
-        <v>1.938242912137184</v>
+        <v>2.29147378093603</v>
       </c>
       <c r="G15">
-        <v>0.0007974584137803165</v>
+        <v>0.002439054549956315</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2299680882084552</v>
+        <v>0.5910146161365155</v>
       </c>
       <c r="J15">
-        <v>0.02768913442615961</v>
+        <v>0.05436095451532985</v>
       </c>
       <c r="K15">
-        <v>1.340355232579185</v>
+        <v>0.4192933745928826</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.041874632265255</v>
+        <v>0.5082053483758457</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.248063542263566</v>
+        <v>2.678081092814068</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.181787853701763</v>
+        <v>0.3811101814798974</v>
       </c>
       <c r="C16">
-        <v>0.1680943993672486</v>
+        <v>0.0525872968092358</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6379743701318148</v>
+        <v>0.5322447571992512</v>
       </c>
       <c r="F16">
-        <v>1.848678104235077</v>
+        <v>2.279194727675915</v>
       </c>
       <c r="G16">
-        <v>0.0007998587834951131</v>
+        <v>0.0024404253992113</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2346992019410088</v>
+        <v>0.5953930431676469</v>
       </c>
       <c r="J16">
-        <v>0.02822022203046792</v>
+        <v>0.05458323604613824</v>
       </c>
       <c r="K16">
-        <v>1.257452406736036</v>
+        <v>0.3937461359424788</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9749910972527118</v>
+        <v>0.4904351675932404</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.244806783728833</v>
+        <v>2.692166593175315</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.133592871921337</v>
+        <v>0.3662683951093868</v>
       </c>
       <c r="C17">
-        <v>0.1616935074730748</v>
+        <v>0.05059814918479333</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6136305265866611</v>
+        <v>0.5269050434013565</v>
       </c>
       <c r="F17">
-        <v>1.794793996415194</v>
+        <v>2.271994861474369</v>
       </c>
       <c r="G17">
-        <v>0.0008013458065350596</v>
+        <v>0.00244128489515931</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2378461094625841</v>
+        <v>0.5981710832138987</v>
       </c>
       <c r="J17">
-        <v>0.02855441869210651</v>
+        <v>0.05472358311961223</v>
       </c>
       <c r="K17">
-        <v>1.206689962825465</v>
+        <v>0.3780567928211838</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9341684171563216</v>
+        <v>0.4795706996147899</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.244027472944254</v>
+        <v>2.701241598336594</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.105901635033405</v>
+        <v>0.3577277316993843</v>
       </c>
       <c r="C18">
-        <v>0.1580165107746865</v>
+        <v>0.04945259223205767</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.599706704265202</v>
+        <v>0.523855922721026</v>
       </c>
       <c r="F18">
-        <v>1.764173454079341</v>
+        <v>2.267976026906609</v>
       </c>
       <c r="G18">
-        <v>0.00080220656579822</v>
+        <v>0.00244178607767593</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2397431831513863</v>
+        <v>0.59980273190844</v>
       </c>
       <c r="J18">
-        <v>0.02874967974940645</v>
+        <v>0.05480577310923707</v>
       </c>
       <c r="K18">
-        <v>1.177523845392102</v>
+        <v>0.3690266411788627</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9107595281145038</v>
+        <v>0.4733354159544092</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.244011423630397</v>
+        <v>2.706620690159085</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.096530537365709</v>
+        <v>0.3548353285077326</v>
       </c>
       <c r="C19">
-        <v>0.1567722795907827</v>
+        <v>0.04906447858131457</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.595005324729641</v>
+        <v>0.5228273481509973</v>
       </c>
       <c r="F19">
-        <v>1.753868148666115</v>
+        <v>2.266636328871712</v>
       </c>
       <c r="G19">
-        <v>0.0008024989556610732</v>
+        <v>0.00244195694269641</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2404001922034738</v>
+        <v>0.6003609820745837</v>
       </c>
       <c r="J19">
-        <v>0.02881630984592221</v>
+        <v>0.05483385319310941</v>
       </c>
       <c r="K19">
-        <v>1.167653663145273</v>
+        <v>0.3659681628325586</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9028454291609478</v>
+        <v>0.4712266123425763</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.244078773079195</v>
+        <v>2.70846932325189</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.138720201433529</v>
+        <v>0.36784875266531</v>
       </c>
       <c r="C20">
-        <v>0.1623744005688366</v>
+        <v>0.05081004798823585</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6162137833015322</v>
+        <v>0.5274711740823363</v>
       </c>
       <c r="F20">
-        <v>1.800491141454032</v>
+        <v>2.272748637662431</v>
       </c>
       <c r="G20">
-        <v>0.0008011869482797418</v>
+        <v>0.002441192694677774</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2375020437730591</v>
+        <v>0.5978718580991931</v>
       </c>
       <c r="J20">
-        <v>0.02851852728910842</v>
+        <v>0.05470849124137622</v>
       </c>
       <c r="K20">
-        <v>1.212090402823264</v>
+        <v>0.3797275808113056</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9385065719169603</v>
+        <v>0.4807258278571425</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.244065355947725</v>
+        <v>2.700259049970683</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.280847293725031</v>
+        <v>0.4115223751619226</v>
       </c>
       <c r="C21">
-        <v>0.1812564884541814</v>
+        <v>0.05665745700866864</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.688437360653765</v>
+        <v>0.5433381519764993</v>
       </c>
       <c r="F21">
-        <v>1.961709707253661</v>
+        <v>2.294746933327303</v>
       </c>
       <c r="G21">
-        <v>0.0007968430401387079</v>
+        <v>0.00243870633825354</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2288245548372316</v>
+        <v>0.589912658544641</v>
       </c>
       <c r="J21">
-        <v>0.02755464918730688</v>
+        <v>0.05430479623447404</v>
       </c>
       <c r="K21">
-        <v>1.361792155631946</v>
+        <v>0.4258837949648182</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.059211450080738</v>
+        <v>0.5128046158260773</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.249294233627779</v>
+        <v>2.674578758581177</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.37407720036677</v>
+        <v>0.4400258655811058</v>
       </c>
       <c r="C22">
-        <v>0.1936520321472699</v>
+        <v>0.06046578972657812</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7364368935638339</v>
+        <v>0.5539047513130271</v>
       </c>
       <c r="F22">
-        <v>2.070776910505103</v>
+        <v>2.310213805553488</v>
       </c>
       <c r="G22">
-        <v>0.0007940495652531025</v>
+        <v>0.002437141794422839</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2239896499153815</v>
+        <v>0.5850122642005253</v>
       </c>
       <c r="J22">
-        <v>0.02695272619587463</v>
+        <v>0.05405397622158503</v>
       </c>
       <c r="K22">
-        <v>1.459997223973687</v>
+        <v>0.4559920361178911</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.138848724182338</v>
+        <v>0.5338898404150001</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.256901207026885</v>
+        <v>2.659216819864696</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.32428326613126</v>
+        <v>0.4248168264028607</v>
       </c>
       <c r="C23">
-        <v>0.1870305609932075</v>
+        <v>0.05843444394393771</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.710740526660615</v>
+        <v>0.5482471951923884</v>
       </c>
       <c r="F23">
-        <v>2.012207358730464</v>
+        <v>2.301859120937266</v>
       </c>
       <c r="G23">
-        <v>0.0007955364877213158</v>
+        <v>0.002437971306771622</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2264905183159698</v>
+        <v>0.5876000955010845</v>
       </c>
       <c r="J23">
-        <v>0.02727137106335142</v>
+        <v>0.05418665421827562</v>
       </c>
       <c r="K23">
-        <v>1.407545276671186</v>
+        <v>0.4399281365104457</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.096270366036727</v>
+        <v>0.5226253797496128</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.252440633154606</v>
+        <v>2.667285587504651</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.136402084620102</v>
+        <v>0.3671342976534788</v>
       </c>
       <c r="C24">
-        <v>0.1620665597246784</v>
+        <v>0.05071425467110657</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6150456704650367</v>
+        <v>0.5272151617552225</v>
       </c>
       <c r="F24">
-        <v>1.797914350808099</v>
+        <v>2.272407480209807</v>
       </c>
       <c r="G24">
-        <v>0.0008012587497671893</v>
+        <v>0.002441234356627631</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2376573228225638</v>
+        <v>0.5980070302610372</v>
       </c>
       <c r="J24">
-        <v>0.02853474406314405</v>
+        <v>0.05471530959867543</v>
       </c>
       <c r="K24">
-        <v>1.209648809147552</v>
+        <v>0.3789722491049758</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9365451045950266</v>
+        <v>0.4802035605822539</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.244046887185675</v>
+        <v>2.700702756263823</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9348191081244863</v>
+        <v>0.3047610365135256</v>
       </c>
       <c r="C25">
-        <v>0.1353089801897767</v>
+        <v>0.04233145940700922</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5147595335598822</v>
+        <v>0.5053754515482751</v>
       </c>
       <c r="F25">
-        <v>1.580801317257453</v>
+        <v>2.245315951283331</v>
       </c>
       <c r="G25">
-        <v>0.0008076415971351916</v>
+        <v>0.002445015145287977</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2530001860373758</v>
+        <v>0.6105243249478782</v>
       </c>
       <c r="J25">
-        <v>0.03001324373924419</v>
+        <v>0.05534162441227153</v>
       </c>
       <c r="K25">
-        <v>0.9973297622908603</v>
+        <v>0.3129918136234835</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.766921868194828</v>
+        <v>0.4349683541639635</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.251345822645121</v>
+        <v>2.742841003481331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_215/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2587124234681539</v>
+        <v>0.7868948731549494</v>
       </c>
       <c r="C2">
-        <v>0.03611214932875839</v>
+        <v>0.1156834565648239</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4900217385315528</v>
+        <v>0.4429386095779861</v>
       </c>
       <c r="F2">
-        <v>2.229381280129004</v>
+        <v>1.431104077018944</v>
       </c>
       <c r="G2">
-        <v>0.002448025733672279</v>
+        <v>0.000812538556730858</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6208505565256885</v>
+        <v>0.2668371859952465</v>
       </c>
       <c r="J2">
-        <v>0.05585128492409552</v>
+        <v>0.03119695222348895</v>
       </c>
       <c r="K2">
-        <v>0.2642209713797286</v>
+        <v>0.8415179720597621</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4021137604249532</v>
+        <v>0.6437379591364873</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.779098296046641</v>
+        <v>1.269124392992367</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.227432949004708</v>
+        <v>0.6867659983806789</v>
       </c>
       <c r="C3">
-        <v>0.03186824337062433</v>
+        <v>0.1023990934415622</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4800693629255974</v>
+        <v>0.3952965902362919</v>
       </c>
       <c r="F3">
-        <v>2.221081260319067</v>
+        <v>1.335126660854812</v>
       </c>
       <c r="G3">
-        <v>0.0024502086728924</v>
+        <v>0.0008159878537800758</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6285404289231629</v>
+        <v>0.2776636349462329</v>
       </c>
       <c r="J3">
-        <v>0.05622708831677414</v>
+        <v>0.03205644637765914</v>
       </c>
       <c r="K3">
-        <v>0.231054985630891</v>
+        <v>0.7360366325285241</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3801312215460229</v>
+        <v>0.5610579046783073</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.806929025359267</v>
+        <v>1.288153198407443</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2081939692552055</v>
+        <v>0.6252891084426437</v>
       </c>
       <c r="C4">
-        <v>0.02924833672945226</v>
+        <v>0.09424105575639885</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4741820905040441</v>
+        <v>0.3664842854904649</v>
       </c>
       <c r="F4">
-        <v>2.217216805839513</v>
+        <v>1.278632987429447</v>
       </c>
       <c r="G4">
-        <v>0.002451619739001172</v>
+        <v>0.0008181724547743599</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6336030001194057</v>
+        <v>0.2849840537081487</v>
       </c>
       <c r="J4">
-        <v>0.05647287603985962</v>
+        <v>0.03261180480697945</v>
       </c>
       <c r="K4">
-        <v>0.2106370737693339</v>
+        <v>0.6712645722274289</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3667744712635468</v>
+        <v>0.5106088740977555</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.825623226152146</v>
+        <v>1.303047219047855</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.20034605430223</v>
+        <v>0.6002299495220882</v>
       </c>
       <c r="C5">
-        <v>0.02817719804622243</v>
+        <v>0.09091500796608898</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4718392699871998</v>
+        <v>0.3548442831413894</v>
       </c>
       <c r="F5">
-        <v>2.215951769323766</v>
+        <v>1.256187635568139</v>
       </c>
       <c r="G5">
-        <v>0.002452212598247469</v>
+        <v>0.0008190797929806014</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6357517339845113</v>
+        <v>0.2881304713007538</v>
       </c>
       <c r="J5">
-        <v>0.05657682577883882</v>
+        <v>0.03284497357294747</v>
       </c>
       <c r="K5">
-        <v>0.2023035496410017</v>
+        <v>0.6448596978808609</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3613670992268609</v>
+        <v>0.4901194516861693</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.833644900320891</v>
+        <v>1.309891089266941</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1990424528122219</v>
+        <v>0.5960682728536995</v>
       </c>
       <c r="C6">
-        <v>0.0279991259816228</v>
+        <v>0.09036259025864979</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4714536487231058</v>
+        <v>0.3529173191628416</v>
       </c>
       <c r="F6">
-        <v>2.215760420257155</v>
+        <v>1.252494377104981</v>
       </c>
       <c r="G6">
-        <v>0.002452312121041236</v>
+        <v>0.0008192314973694864</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6361137041510379</v>
+        <v>0.2886626256329752</v>
       </c>
       <c r="J6">
-        <v>0.05659431560868899</v>
+        <v>0.03288410256148921</v>
       </c>
       <c r="K6">
-        <v>0.2009189998841094</v>
+        <v>0.6404743707679614</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3604713675732611</v>
+        <v>0.4867210625885363</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.835001265622097</v>
+        <v>1.311073353368641</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.208088160764504</v>
+        <v>0.6249511890716519</v>
       </c>
       <c r="C7">
-        <v>0.02923390510825641</v>
+        <v>0.09419620748637669</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4741502663774071</v>
+        <v>0.3663269064770631</v>
       </c>
       <c r="F7">
-        <v>2.217198490889032</v>
+        <v>1.278327995068594</v>
       </c>
       <c r="G7">
-        <v>0.002451627662069023</v>
+        <v>0.0008181846219294215</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6336316317759838</v>
+        <v>0.2850258338801055</v>
       </c>
       <c r="J7">
-        <v>0.05647426259139632</v>
+        <v>0.03261492176075276</v>
       </c>
       <c r="K7">
-        <v>0.2105247371805063</v>
+        <v>0.6709085167415907</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3667014010251819</v>
+        <v>0.5103322810529392</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.825729775234521</v>
+        <v>1.303136424409928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2479344455516923</v>
+        <v>0.7523652056250967</v>
       </c>
       <c r="C8">
-        <v>0.03465181093180547</v>
+        <v>0.1111025246304536</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4865438121792991</v>
+        <v>0.4264144552758538</v>
       </c>
       <c r="F8">
-        <v>2.226263775718749</v>
+        <v>1.397482708452756</v>
       </c>
       <c r="G8">
-        <v>0.002448763762230688</v>
+        <v>0.0008137142234710838</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.623431234038069</v>
+        <v>0.2704268250910786</v>
       </c>
       <c r="J8">
-        <v>0.05597774373788234</v>
+        <v>0.03148751610451583</v>
       </c>
       <c r="K8">
-        <v>0.2527967989292108</v>
+        <v>0.8051441439584721</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3945051398658563</v>
+        <v>0.6151574540961988</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.788360875155945</v>
+        <v>1.274998992583789</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3257913842982703</v>
+        <v>1.002617955784189</v>
       </c>
       <c r="C9">
-        <v>0.04516257514771382</v>
+        <v>0.1443060776633587</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5126192294069938</v>
+        <v>0.5481953244944648</v>
       </c>
       <c r="F9">
-        <v>2.253817866297126</v>
+        <v>1.652236168376817</v>
       </c>
       <c r="G9">
-        <v>0.002443706500191748</v>
+        <v>0.0008054619201013877</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6061353773584912</v>
+        <v>0.2474184079016304</v>
       </c>
       <c r="J9">
-        <v>0.0551231328710351</v>
+        <v>0.02950015168910447</v>
       </c>
       <c r="K9">
-        <v>0.335247500835095</v>
+        <v>1.068739843024019</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4501358706769878</v>
+        <v>0.8237572341590322</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.727833490151227</v>
+        <v>1.246854298155057</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3828031701116572</v>
+        <v>1.187291465008286</v>
       </c>
       <c r="C10">
-        <v>0.05281407443531805</v>
+        <v>0.168825457701459</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5328570540435322</v>
+        <v>0.6407630891776535</v>
       </c>
       <c r="F10">
-        <v>2.2800328607631</v>
+        <v>1.854878355890818</v>
       </c>
       <c r="G10">
-        <v>0.002440328248076357</v>
+        <v>0.000799689833662027</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5950806302202736</v>
+        <v>0.2343521151798278</v>
       </c>
       <c r="J10">
-        <v>0.05456741999789116</v>
+        <v>0.02818250293824498</v>
       </c>
       <c r="K10">
-        <v>0.3955355662577631</v>
+        <v>1.263249261330145</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4916767251135141</v>
+        <v>0.9796592793786942</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.691152677413854</v>
+        <v>1.24495539182108</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4086946458871807</v>
+        <v>1.271619063973304</v>
       </c>
       <c r="C11">
-        <v>0.05627932189648277</v>
+        <v>0.1800299744440537</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5422985258098407</v>
+        <v>0.6837125602568364</v>
       </c>
       <c r="F11">
-        <v>2.293257965729268</v>
+        <v>1.951053518666342</v>
       </c>
       <c r="G11">
-        <v>0.002438863923373891</v>
+        <v>0.0007971218156028299</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5904108438965565</v>
+        <v>0.2293390882346671</v>
       </c>
       <c r="J11">
-        <v>0.05433019578169329</v>
+        <v>0.02761548908194378</v>
       </c>
       <c r="K11">
-        <v>0.4228962328456873</v>
+        <v>1.352071793224923</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5107189387872779</v>
+        <v>1.051348123501654</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.676159982997348</v>
+        <v>1.248716747480771</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4184924084242709</v>
+        <v>1.30360965872589</v>
       </c>
       <c r="C12">
-        <v>0.05758926047641921</v>
+        <v>0.1842821391165046</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5459075440473384</v>
+        <v>0.7001120531492546</v>
       </c>
       <c r="F12">
-        <v>2.2984529769586</v>
+        <v>1.988103012436767</v>
       </c>
       <c r="G12">
-        <v>0.002438319787202485</v>
+        <v>0.0007961572122908138</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5886942011338938</v>
+        <v>0.2275834653010094</v>
       </c>
       <c r="J12">
-        <v>0.05424259795329078</v>
+        <v>0.02740556941067496</v>
       </c>
       <c r="K12">
-        <v>0.433247297900067</v>
+        <v>1.385768648978569</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5179504007812596</v>
+        <v>1.078622254124518</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.670726445104947</v>
+        <v>1.25085549438819</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.416382594739531</v>
+        <v>1.296717154970992</v>
       </c>
       <c r="C13">
-        <v>0.05730724380028107</v>
+        <v>0.1833659141182835</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5451287781922645</v>
+        <v>0.6965738578550287</v>
       </c>
       <c r="F13">
-        <v>2.297325822924989</v>
+        <v>1.980094781937439</v>
       </c>
       <c r="G13">
-        <v>0.002438436516044211</v>
+        <v>0.0007963646153341382</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5890616102101021</v>
+        <v>0.2279550759580644</v>
       </c>
       <c r="J13">
-        <v>0.05426136444851082</v>
+        <v>0.02745056374989652</v>
       </c>
       <c r="K13">
-        <v>0.4310184561671804</v>
+        <v>1.378508467940435</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5163920646807938</v>
+        <v>1.07274234902038</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.67188580320898</v>
+        <v>1.250362280210908</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4095008525434878</v>
+        <v>1.274249725332766</v>
       </c>
       <c r="C14">
-        <v>0.05638713723547539</v>
+        <v>0.1803796050478326</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5425947662220381</v>
+        <v>0.6850589532796363</v>
       </c>
       <c r="F14">
-        <v>2.29368161539486</v>
+        <v>1.954088639732404</v>
       </c>
       <c r="G14">
-        <v>0.00243881894925597</v>
+        <v>0.0007970423025612034</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5902685780397299</v>
+        <v>0.2291917392644081</v>
       </c>
       <c r="J14">
-        <v>0.05432294431712137</v>
+        <v>0.02759812191474786</v>
       </c>
       <c r="K14">
-        <v>0.4237480211162108</v>
+        <v>1.354842739865006</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5113134644410948</v>
+        <v>1.053589334853768</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.675708073134658</v>
+        <v>1.248878090592953</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4052846885429631</v>
+        <v>1.260495636198101</v>
       </c>
       <c r="C15">
-        <v>0.05582324751314616</v>
+        <v>0.1785516720870675</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5410470019669731</v>
+        <v>0.678023838470807</v>
       </c>
       <c r="F15">
-        <v>2.29147378093603</v>
+        <v>1.938242912137213</v>
       </c>
       <c r="G15">
-        <v>0.002439054549956315</v>
+        <v>0.0007974584138200466</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5910146161365155</v>
+        <v>0.2299680882084552</v>
       </c>
       <c r="J15">
-        <v>0.05436095451532985</v>
+        <v>0.02768913442610632</v>
       </c>
       <c r="K15">
-        <v>0.4192933745928826</v>
+        <v>1.340355232579242</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5082053483758457</v>
+        <v>1.041874632265262</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.678081092814068</v>
+        <v>1.248063542263495</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3811101814798974</v>
+        <v>1.181787853701621</v>
       </c>
       <c r="C16">
-        <v>0.0525872968092358</v>
+        <v>0.1680943993669501</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5322447571992512</v>
+        <v>0.6379743701318148</v>
       </c>
       <c r="F16">
-        <v>2.279194727675915</v>
+        <v>1.848678104235077</v>
       </c>
       <c r="G16">
-        <v>0.0024404253992113</v>
+        <v>0.0007998587834741228</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5953930431676469</v>
+        <v>0.2346992019410088</v>
       </c>
       <c r="J16">
-        <v>0.05458323604613824</v>
+        <v>0.02822022203039509</v>
       </c>
       <c r="K16">
-        <v>0.3937461359424788</v>
+        <v>1.257452406735979</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4904351675932404</v>
+        <v>0.9749910972527047</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.692166593175315</v>
+        <v>1.244806783728819</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3662683951093868</v>
+        <v>1.133592871921365</v>
       </c>
       <c r="C17">
-        <v>0.05059814918479333</v>
+        <v>0.1616935074730605</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5269050434013565</v>
+        <v>0.6136305265866469</v>
       </c>
       <c r="F17">
-        <v>2.271994861474369</v>
+        <v>1.794793996415194</v>
       </c>
       <c r="G17">
-        <v>0.00244128489515931</v>
+        <v>0.0008013458065319057</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5981710832138987</v>
+        <v>0.2378461094625948</v>
       </c>
       <c r="J17">
-        <v>0.05472358311961223</v>
+        <v>0.02855441869219</v>
       </c>
       <c r="K17">
-        <v>0.3780567928211838</v>
+        <v>1.206689962825607</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4795706996147899</v>
+        <v>0.9341684171563216</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.701241598336594</v>
+        <v>1.24402747294431</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3577277316993843</v>
+        <v>1.105901635033263</v>
       </c>
       <c r="C18">
-        <v>0.04945259223205767</v>
+        <v>0.1580165107744449</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.523855922721026</v>
+        <v>0.5997067042651736</v>
       </c>
       <c r="F18">
-        <v>2.267976026906609</v>
+        <v>1.764173454079341</v>
       </c>
       <c r="G18">
-        <v>0.00244178607767593</v>
+        <v>0.0008022065657409325</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.59980273190844</v>
+        <v>0.2397431831513828</v>
       </c>
       <c r="J18">
-        <v>0.05480577310923707</v>
+        <v>0.02874967974932119</v>
       </c>
       <c r="K18">
-        <v>0.3690266411788627</v>
+        <v>1.177523845392074</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4733354159544092</v>
+        <v>0.9107595281145038</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.706620690159085</v>
+        <v>1.244011423630411</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3548353285077326</v>
+        <v>1.09653053736568</v>
       </c>
       <c r="C19">
-        <v>0.04906447858131457</v>
+        <v>0.1567722795903137</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5228273481509973</v>
+        <v>0.595005324729641</v>
       </c>
       <c r="F19">
-        <v>2.266636328871712</v>
+        <v>1.753868148666115</v>
       </c>
       <c r="G19">
-        <v>0.00244195694269641</v>
+        <v>0.0008024989556026199</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6003609820745837</v>
+        <v>0.2404001922034702</v>
       </c>
       <c r="J19">
-        <v>0.05483385319310941</v>
+        <v>0.02881630984592221</v>
       </c>
       <c r="K19">
-        <v>0.3659681628325586</v>
+        <v>1.167653663145359</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4712266123425763</v>
+        <v>0.9028454291609478</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.70846932325189</v>
+        <v>1.244078773079224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.36784875266531</v>
+        <v>1.1387202014335</v>
       </c>
       <c r="C20">
-        <v>0.05081004798823585</v>
+        <v>0.1623744005685808</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5274711740823363</v>
+        <v>0.6162137833015464</v>
       </c>
       <c r="F20">
-        <v>2.272748637662431</v>
+        <v>1.800491141454032</v>
       </c>
       <c r="G20">
-        <v>0.002441192694677774</v>
+        <v>0.0008011869481251235</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5978718580991931</v>
+        <v>0.2375020437730484</v>
       </c>
       <c r="J20">
-        <v>0.05470849124137622</v>
+        <v>0.02851852728920612</v>
       </c>
       <c r="K20">
-        <v>0.3797275808113056</v>
+        <v>1.212090402823321</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4807258278571425</v>
+        <v>0.9385065719169745</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.700259049970683</v>
+        <v>1.244065355947711</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4115223751619226</v>
+        <v>1.28084729372506</v>
       </c>
       <c r="C21">
-        <v>0.05665745700866864</v>
+        <v>0.1812564884541814</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5433381519764993</v>
+        <v>0.6884373606537366</v>
       </c>
       <c r="F21">
-        <v>2.294746933327303</v>
+        <v>1.961709707253647</v>
       </c>
       <c r="G21">
-        <v>0.00243870633825354</v>
+        <v>0.0007968430401388583</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.589912658544641</v>
+        <v>0.2288245548372316</v>
       </c>
       <c r="J21">
-        <v>0.05430479623447404</v>
+        <v>0.02755464918730866</v>
       </c>
       <c r="K21">
-        <v>0.4258837949648182</v>
+        <v>1.361792155631861</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5128046158260773</v>
+        <v>1.059211450080724</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.674578758581177</v>
+        <v>1.249294233627865</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4400258655811058</v>
+        <v>1.374077200366912</v>
       </c>
       <c r="C22">
-        <v>0.06046578972657812</v>
+        <v>0.1936520321472699</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5539047513130271</v>
+        <v>0.7364368935638339</v>
       </c>
       <c r="F22">
-        <v>2.310213805553488</v>
+        <v>2.070776910505103</v>
       </c>
       <c r="G22">
-        <v>0.002437141794422839</v>
+        <v>0.0007940495652724033</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5850122642005253</v>
+        <v>0.223989649915378</v>
       </c>
       <c r="J22">
-        <v>0.05405397622158503</v>
+        <v>0.02695272619597766</v>
       </c>
       <c r="K22">
-        <v>0.4559920361178911</v>
+        <v>1.459997223973801</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5338898404150001</v>
+        <v>1.138848724182338</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.659216819864696</v>
+        <v>1.256901207026885</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4248168264028607</v>
+        <v>1.324283266131289</v>
       </c>
       <c r="C23">
-        <v>0.05843444394393771</v>
+        <v>0.1870305609934206</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5482471951923884</v>
+        <v>0.7107405266606577</v>
       </c>
       <c r="F23">
-        <v>2.301859120937266</v>
+        <v>2.012207358730478</v>
       </c>
       <c r="G23">
-        <v>0.002437971306771622</v>
+        <v>0.0007955364877206828</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5876000955010845</v>
+        <v>0.226490518315984</v>
       </c>
       <c r="J23">
-        <v>0.05418665421827562</v>
+        <v>0.02727137106328925</v>
       </c>
       <c r="K23">
-        <v>0.4399281365104457</v>
+        <v>1.407545276671186</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5226253797496128</v>
+        <v>1.096270366036727</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.667285587504651</v>
+        <v>1.252440633154606</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3671342976534788</v>
+        <v>1.136402084619988</v>
       </c>
       <c r="C24">
-        <v>0.05071425467110657</v>
+        <v>0.1620665597248347</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5272151617552225</v>
+        <v>0.6150456704650651</v>
       </c>
       <c r="F24">
-        <v>2.272407480209807</v>
+        <v>1.797914350808085</v>
       </c>
       <c r="G24">
-        <v>0.002441234356627631</v>
+        <v>0.0008012587497831148</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5980070302610372</v>
+        <v>0.2376573228225709</v>
       </c>
       <c r="J24">
-        <v>0.05471530959867543</v>
+        <v>0.02853474406306233</v>
       </c>
       <c r="K24">
-        <v>0.3789722491049758</v>
+        <v>1.209648809147637</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4802035605822539</v>
+        <v>0.9365451045950408</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.700702756263823</v>
+        <v>1.244046887185689</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3047610365135256</v>
+        <v>0.9348191081244579</v>
       </c>
       <c r="C25">
-        <v>0.04233145940700922</v>
+        <v>0.1353089801898903</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5053754515482751</v>
+        <v>0.5147595335598467</v>
       </c>
       <c r="F25">
-        <v>2.245315951283331</v>
+        <v>1.580801317257468</v>
       </c>
       <c r="G25">
-        <v>0.002445015145287977</v>
+        <v>0.0008076415971007365</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6105243249478782</v>
+        <v>0.2530001860373758</v>
       </c>
       <c r="J25">
-        <v>0.05534162441227153</v>
+        <v>0.03001324373929037</v>
       </c>
       <c r="K25">
-        <v>0.3129918136234835</v>
+        <v>0.9973297622909456</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4349683541639635</v>
+        <v>0.7669218681948209</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.742841003481331</v>
+        <v>1.251345822645163</v>
       </c>
     </row>
   </sheetData>
